--- a/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面遷移図.xlsx
+++ b/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面遷移図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\レビュー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yq199\Documents\prac\YSteam開発資料まとめ\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD53E22-CBFA-4B50-BBD3-2F87208C5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6633D8-1EAF-4327-8300-AA046A77E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -77,27 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参加者：</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時：</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>議事：</t>
-    <rPh sb="0" eb="2">
-      <t>ギジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最終確認欄</t>
     <rPh sb="0" eb="2">
       <t>サイシュウ</t>
@@ -204,6 +181,129 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議事：画面遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時：11/9</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力間違い、空欄の場合提出して、問題エラーページに飛ぶ、そうすると、ただ一つの間違いのため、ほかのページに飛んでいくと、すべての内容消えちゃう、回答者には時間の無駄です</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ムダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者：よう　その</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出ボタンを押すとき、フォムをチェックする、もし答え入力間違いの場合、直接画面に提示する（例え：ｊｓでチェックする、入力ボックスを赤にする）、間違いを修正すれば、再提出できる</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>サイテイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -424,7 +524,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,7 +832,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -744,29 +844,29 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8">
       <c r="G1" s="18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="36.6">
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="G2" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="36.6">
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="17"/>
@@ -774,37 +874,37 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="36.6">
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="F6" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="F7" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="36">
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
@@ -818,33 +918,39 @@
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="108" customHeight="1">
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="108" customHeight="1">
       <c r="B10" s="7">
         <v>2</v>
       </c>
@@ -852,16 +958,16 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="108" customHeight="1">
       <c r="B11" s="7">
         <v>3</v>
       </c>
@@ -869,16 +975,16 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="108" customHeight="1">
       <c r="B12" s="7">
         <v>4</v>
       </c>
@@ -886,16 +992,16 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="108" customHeight="1">
       <c r="B13" s="7">
         <v>5</v>
       </c>
@@ -903,16 +1009,16 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="108" customHeight="1">
       <c r="B14" s="7">
         <v>6</v>
       </c>
@@ -920,16 +1026,16 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="108" customHeight="1">
       <c r="B15" s="7">
         <v>7</v>
       </c>
@@ -937,16 +1043,16 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="108" customHeight="1">
       <c r="B16" s="7">
         <v>8</v>
       </c>
@@ -954,16 +1060,16 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="108" customHeight="1">
       <c r="B17" s="7">
         <v>9</v>
       </c>
@@ -971,37 +1077,37 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="108" customHeight="1">
       <c r="B18" s="7">
         <v>10</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="108" customHeight="1">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1009,16 +1115,16 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="108" customHeight="1">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1026,16 +1132,16 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="108" customHeight="1">
       <c r="B21" s="7">
         <v>13</v>
       </c>
@@ -1043,16 +1149,16 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="108" customHeight="1">
       <c r="B22" s="7">
         <v>14</v>
       </c>
@@ -1060,16 +1166,16 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="108" customHeight="1">
       <c r="B23" s="7">
         <v>15</v>
       </c>
@@ -1077,16 +1183,16 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="108" customHeight="1">
       <c r="B24" s="7">
         <v>16</v>
       </c>
@@ -1094,16 +1200,16 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="108" customHeight="1">
       <c r="B25" s="7">
         <v>17</v>
       </c>
@@ -1111,16 +1217,16 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="108" customHeight="1">
       <c r="B26" s="7">
         <v>18</v>
       </c>
@@ -1128,16 +1234,16 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="108" customHeight="1">
       <c r="B27" s="7">
         <v>19</v>
       </c>
@@ -1145,16 +1251,16 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="108" customHeight="1">
       <c r="B28" s="7">
         <v>20</v>
       </c>
@@ -1162,16 +1268,16 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="108" customHeight="1">
       <c r="B29" s="7">
         <v>21</v>
       </c>
@@ -1179,16 +1285,16 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="108" customHeight="1">
       <c r="B30" s="7">
         <v>22</v>
       </c>
@@ -1196,16 +1302,16 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="108" customHeight="1">
       <c r="B31" s="7">
         <v>23</v>
       </c>
@@ -1213,16 +1319,16 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="108" customHeight="1">
       <c r="B32" s="7">
         <v>24</v>
       </c>
@@ -1230,16 +1336,16 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="108" customHeight="1">
       <c r="B33" s="7">
         <v>25</v>
       </c>
@@ -1247,16 +1353,16 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="108" customHeight="1">
       <c r="B34" s="7">
         <v>26</v>
       </c>
@@ -1264,16 +1370,16 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="108" customHeight="1">
       <c r="B35" s="7">
         <v>27</v>
       </c>
@@ -1281,16 +1387,16 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="108" customHeight="1">
       <c r="B36" s="7">
         <v>28</v>
       </c>
@@ -1298,16 +1404,16 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="108" customHeight="1">
       <c r="B37" s="7">
         <v>29</v>
       </c>
@@ -1315,16 +1421,16 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="108" customHeight="1">
       <c r="B38" s="7">
         <v>30</v>
       </c>
@@ -1332,13 +1438,13 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面遷移図.xlsx
+++ b/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面遷移図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yq199\Documents\prac\YSteam開発資料まとめ\レビュー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6633D8-1EAF-4327-8300-AA046A77E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F2FB1-1A2C-4C3E-8286-9FB492A018C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -264,13 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参加者：よう　その</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>提出ボタンを押すとき、フォムをチェックする、もし答え入力間違いの場合、直接画面に提示する（例え：ｊｓでチェックする、入力ボックスを赤にする）、間違いを修正すれば、再提出できる</t>
     <rPh sb="0" eb="2">
       <t>テイシュツ</t>
@@ -306,13 +299,37 @@
       <t>サイテイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苑</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者：ヨウ、苑</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -524,7 +541,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,10 +846,10 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -844,13 +861,13 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="2:8" ht="36.6">
+    <row r="2" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -864,38 +881,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="36.6">
+    <row r="3" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="17"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" ht="36.6">
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="36.6" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
@@ -904,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="36">
+    <row r="8" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
@@ -927,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="108" customHeight="1">
+    <row r="9" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -938,19 +959,19 @@
         <v>19</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="108" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>2</v>
       </c>
@@ -967,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="108" customHeight="1">
+    <row r="11" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>3</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="108" customHeight="1">
+    <row r="12" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>4</v>
       </c>
@@ -1001,7 +1022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="108" customHeight="1">
+    <row r="13" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>5</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="108" customHeight="1">
+    <row r="14" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>6</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="108" customHeight="1">
+    <row r="15" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>7</v>
       </c>
@@ -1052,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="108" customHeight="1">
+    <row r="16" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>8</v>
       </c>
@@ -1069,7 +1090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="108" customHeight="1">
+    <row r="17" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>9</v>
       </c>
@@ -1086,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="108" customHeight="1">
+    <row r="18" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>10</v>
       </c>
@@ -1107,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="108" customHeight="1">
+    <row r="19" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="108" customHeight="1">
+    <row r="20" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="108" customHeight="1">
+    <row r="21" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>13</v>
       </c>
@@ -1158,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="108" customHeight="1">
+    <row r="22" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <v>14</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="108" customHeight="1">
+    <row r="23" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>15</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="108" customHeight="1">
+    <row r="24" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <v>16</v>
       </c>
@@ -1209,7 +1230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="108" customHeight="1">
+    <row r="25" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>17</v>
       </c>
@@ -1226,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="108" customHeight="1">
+    <row r="26" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>18</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="108" customHeight="1">
+    <row r="27" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>19</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="108" customHeight="1">
+    <row r="28" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>20</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="108" customHeight="1">
+    <row r="29" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>21</v>
       </c>
@@ -1294,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="108" customHeight="1">
+    <row r="30" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>22</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="108" customHeight="1">
+    <row r="31" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>23</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="108" customHeight="1">
+    <row r="32" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <v>24</v>
       </c>
@@ -1345,7 +1366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="108" customHeight="1">
+    <row r="33" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <v>25</v>
       </c>
@@ -1362,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="108" customHeight="1">
+    <row r="34" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>26</v>
       </c>
@@ -1379,7 +1400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="108" customHeight="1">
+    <row r="35" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>27</v>
       </c>
@@ -1396,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="108" customHeight="1">
+    <row r="36" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <v>28</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="108" customHeight="1">
+    <row r="37" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <v>29</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="108" customHeight="1">
+    <row r="38" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <v>30</v>
       </c>
